--- a/results/170623-Z18-1707-2017_Munich_Mash-Open_Pairs.xlsx
+++ b/results/170623-Z18-1707-2017_Munich_Mash-Open_Pairs.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kolja\OneDrive\Dokumente\Frisbee\Rankings\Turniere-berechnet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63A662-5458-4A42-8775-C7A3B99D7478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Z18" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_FilterDatabase" localSheetId="0" hidden="1">'Z18'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Z18'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="52">
   <si>
     <t/>
   </si>
@@ -60,9 +61,6 @@
   </si>
   <si>
     <t>played twice</t>
-  </si>
-  <si>
-    <t>(Nicco, Fabrizio "Nino")</t>
   </si>
   <si>
     <t>*</t>
@@ -191,7 +189,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1337,6 +1335,58 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1345,15 +1395,47 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1369,10 +1451,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1406,89 +1484,9 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1780,46 +1778,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Tabelle25">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:AR41"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B30" sqref="B30"/>
-      <selection pane="topRight" activeCell="F22" sqref="F22"/>
+      <selection pane="topRight" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.54296875" defaultRowHeight="10.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="3.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="3.453125" style="1" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="3.26953125" style="1" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="4.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.54296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="3.42578125" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="8" style="1" customWidth="1"/>
-    <col min="8" max="8" width="5.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.26953125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="1" style="1" customWidth="1"/>
-    <col min="11" max="14" width="7.26953125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="7.26953125" style="4" customWidth="1"/>
-    <col min="16" max="16" width="7.81640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="2.453125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.7265625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="6.453125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.81640625" style="3" customWidth="1"/>
-    <col min="21" max="21" width="2.7265625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="11.54296875" style="2"/>
-    <col min="23" max="16384" width="11.54296875" style="1"/>
+    <col min="11" max="14" width="7.28515625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.28515625" style="4" customWidth="1"/>
+    <col min="16" max="16" width="7.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="2.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="18.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" style="3" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5703125" style="2"/>
+    <col min="23" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="11" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="92" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="91"/>
@@ -1828,19 +1826,19 @@
       <c r="G2" s="91"/>
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
-      <c r="J2" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="100"/>
+      <c r="J2" s="119" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="120"/>
+      <c r="L2" s="120"/>
+      <c r="M2" s="120"/>
+      <c r="N2" s="120"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="121"/>
     </row>
-    <row r="3" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="88" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
@@ -1849,22 +1847,22 @@
       <c r="G3" s="87"/>
       <c r="H3" s="87"/>
       <c r="I3" s="87"/>
-      <c r="J3" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="97"/>
-      <c r="P3" s="101"/>
+      <c r="J3" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" s="111"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="111"/>
+      <c r="N3" s="111"/>
+      <c r="O3" s="111"/>
+      <c r="P3" s="112"/>
       <c r="S3" s="2"/>
       <c r="T3" s="1"/>
       <c r="V3" s="1"/>
     </row>
-    <row r="4" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="90" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -1873,19 +1871,19 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="89"/>
-      <c r="J4" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" s="103"/>
-      <c r="L4" s="103"/>
-      <c r="M4" s="103"/>
-      <c r="N4" s="103"/>
-      <c r="O4" s="103"/>
-      <c r="P4" s="104"/>
+      <c r="J4" s="122" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="124"/>
     </row>
-    <row r="5" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="87"/>
       <c r="D5" s="87"/>
@@ -1894,19 +1892,19 @@
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
       <c r="I5" s="87"/>
-      <c r="J5" s="96" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="97"/>
-      <c r="L5" s="97"/>
-      <c r="M5" s="97"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="97"/>
-      <c r="P5" s="101"/>
+      <c r="J5" s="110" t="s">
+        <v>44</v>
+      </c>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="112"/>
     </row>
-    <row r="6" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" s="89"/>
       <c r="D6" s="89"/>
@@ -1915,19 +1913,19 @@
       <c r="G6" s="89"/>
       <c r="H6" s="89"/>
       <c r="I6" s="89"/>
-      <c r="J6" s="105">
+      <c r="J6" s="125">
         <v>15</v>
       </c>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
-      <c r="N6" s="106"/>
-      <c r="O6" s="106"/>
-      <c r="P6" s="107"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="127"/>
     </row>
-    <row r="7" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="87"/>
@@ -1936,19 +1934,19 @@
       <c r="G7" s="87"/>
       <c r="H7" s="87"/>
       <c r="I7" s="87"/>
-      <c r="J7" s="108">
+      <c r="J7" s="128">
         <v>0.8</v>
       </c>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="110"/>
+      <c r="K7" s="129"/>
+      <c r="L7" s="129"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="129"/>
+      <c r="O7" s="129"/>
+      <c r="P7" s="130"/>
     </row>
-    <row r="8" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="89"/>
       <c r="D8" s="89"/>
@@ -1957,19 +1955,19 @@
       <c r="G8" s="89"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
-      <c r="J8" s="93"/>
-      <c r="K8" s="94"/>
-      <c r="L8" s="94"/>
-      <c r="M8" s="94" t="s">
-        <v>37</v>
-      </c>
-      <c r="N8" s="94"/>
-      <c r="O8" s="94"/>
-      <c r="P8" s="95"/>
+      <c r="J8" s="106"/>
+      <c r="K8" s="107"/>
+      <c r="L8" s="107"/>
+      <c r="M8" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="N8" s="107"/>
+      <c r="O8" s="107"/>
+      <c r="P8" s="113"/>
     </row>
-    <row r="9" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="88" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="87"/>
       <c r="D9" s="87"/>
@@ -1978,17 +1976,17 @@
       <c r="G9" s="87"/>
       <c r="H9" s="87"/>
       <c r="I9" s="87"/>
-      <c r="J9" s="96"/>
-      <c r="K9" s="97"/>
-      <c r="L9" s="97"/>
-      <c r="M9" s="97"/>
-      <c r="N9" s="97"/>
-      <c r="O9" s="97"/>
-      <c r="P9" s="101"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="111"/>
+      <c r="N9" s="111"/>
+      <c r="O9" s="111"/>
+      <c r="P9" s="112"/>
     </row>
-    <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="89"/>
       <c r="D10" s="89"/>
@@ -1997,17 +1995,17 @@
       <c r="G10" s="89"/>
       <c r="H10" s="89"/>
       <c r="I10" s="89"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="111"/>
-      <c r="N10" s="111"/>
-      <c r="O10" s="111"/>
-      <c r="P10" s="112"/>
+      <c r="J10" s="106"/>
+      <c r="K10" s="107"/>
+      <c r="L10" s="107"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="108"/>
+      <c r="O10" s="108"/>
+      <c r="P10" s="109"/>
     </row>
-    <row r="11" spans="1:22" ht="11" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="87"/>
       <c r="D11" s="87"/>
@@ -2016,19 +2014,19 @@
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
-      <c r="J11" s="96">
+      <c r="J11" s="110">
         <v>1707</v>
       </c>
-      <c r="K11" s="97"/>
-      <c r="L11" s="97"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="97"/>
-      <c r="P11" s="101"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="112"/>
     </row>
-    <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="85"/>
       <c r="D12" s="85"/>
@@ -2037,48 +2035,48 @@
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
-      <c r="J12" s="93">
+      <c r="J12" s="106">
         <v>1907</v>
       </c>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="107"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="113"/>
     </row>
-    <row r="13" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="113"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="115"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
-      <c r="N13" s="116"/>
-      <c r="O13" s="116"/>
-      <c r="P13" s="117"/>
+    <row r="13" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="114"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="117"/>
+      <c r="L13" s="117"/>
+      <c r="M13" s="117"/>
+      <c r="N13" s="117"/>
+      <c r="O13" s="117"/>
+      <c r="P13" s="118"/>
     </row>
-    <row r="14" spans="1:22" ht="11" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="84"/>
       <c r="R14" s="84"/>
       <c r="S14" s="84"/>
     </row>
-    <row r="15" spans="1:22" s="73" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:22" s="73" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="82"/>
       <c r="D15" s="82"/>
       <c r="E15" s="82"/>
       <c r="F15" s="81"/>
       <c r="G15" s="80" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H15" s="79"/>
       <c r="I15" s="79"/>
@@ -2089,39 +2087,39 @@
       <c r="N15" s="77"/>
       <c r="O15" s="76"/>
       <c r="P15" s="76"/>
-      <c r="R15" s="118"/>
-      <c r="S15" s="119"/>
-      <c r="T15" s="120"/>
+      <c r="R15" s="97"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="99"/>
       <c r="U15" s="75">
         <v>1</v>
       </c>
       <c r="V15" s="74"/>
     </row>
-    <row r="16" spans="1:22" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
       <c r="B16" s="72" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="71"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="69" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H16" s="68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" s="67" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="66" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="L16" s="65" t="s">
         <v>0</v>
@@ -2130,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="N16" s="65" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O16" s="64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="P16" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="R16" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="S16" s="122"/>
-      <c r="T16" s="123"/>
+      <c r="R16" s="100" t="s">
+        <v>24</v>
+      </c>
+      <c r="S16" s="101"/>
+      <c r="T16" s="102"/>
       <c r="U16" s="5"/>
     </row>
-    <row r="17" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
       <c r="B17" s="61"/>
       <c r="C17" s="60"/>
@@ -2166,13 +2164,13 @@
       <c r="P17" s="51"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="50" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17" s="49" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="T17" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U17" s="5"/>
       <c r="W17" s="1"/>
@@ -2198,9 +2196,9 @@
       <c r="AQ17" s="1"/>
       <c r="AR17" s="1"/>
     </row>
-    <row r="18" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="124">
+      <c r="B18" s="103">
         <v>1</v>
       </c>
       <c r="C18" s="45">
@@ -2213,7 +2211,7 @@
         <v>253</v>
       </c>
       <c r="F18" s="44" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>2</v>
@@ -2240,12 +2238,12 @@
       <c r="O18" s="36">
         <v>119</v>
       </c>
-      <c r="P18" s="127" t="s">
+      <c r="P18" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="S18" s="21">
         <v>119</v>
@@ -2277,9 +2275,9 @@
       <c r="AQ18" s="1"/>
       <c r="AR18" s="1"/>
     </row>
-    <row r="19" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="125"/>
+      <c r="B19" s="104"/>
       <c r="C19" s="32">
         <v>1</v>
       </c>
@@ -2290,7 +2288,7 @@
         <v>304</v>
       </c>
       <c r="F19" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="30" t="s">
         <v>2</v>
@@ -2317,10 +2315,10 @@
       <c r="O19" s="23">
         <v>119</v>
       </c>
-      <c r="P19" s="127"/>
+      <c r="P19" s="96"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S19" s="7">
         <v>119</v>
@@ -2352,9 +2350,9 @@
       <c r="AQ19" s="1"/>
       <c r="AR19" s="1"/>
     </row>
-    <row r="20" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="126"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="19">
         <v>1</v>
       </c>
@@ -2390,7 +2388,7 @@
       <c r="O20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="127"/>
+      <c r="P20" s="96"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="22" t="s">
         <v>0</v>
@@ -2425,9 +2423,9 @@
       <c r="AQ20" s="1"/>
       <c r="AR20" s="1"/>
     </row>
-    <row r="21" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="124">
+      <c r="B21" s="103">
         <v>2</v>
       </c>
       <c r="C21" s="45">
@@ -2440,7 +2438,7 @@
         <v>310</v>
       </c>
       <c r="F21" s="44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G21" s="43" t="s">
         <v>2</v>
@@ -2467,12 +2465,12 @@
       <c r="O21" s="36">
         <v>98</v>
       </c>
-      <c r="P21" s="127" t="s">
+      <c r="P21" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S21" s="7">
         <v>98</v>
@@ -2504,9 +2502,9 @@
       <c r="AQ21" s="1"/>
       <c r="AR21" s="1"/>
     </row>
-    <row r="22" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="125"/>
+      <c r="B22" s="104"/>
       <c r="C22" s="32">
         <v>2</v>
       </c>
@@ -2517,7 +2515,7 @@
         <v>515</v>
       </c>
       <c r="F22" s="31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="30" t="s">
         <v>2</v>
@@ -2544,10 +2542,10 @@
       <c r="O22" s="23">
         <v>98</v>
       </c>
-      <c r="P22" s="127"/>
+      <c r="P22" s="96"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S22" s="21">
         <v>98</v>
@@ -2579,9 +2577,9 @@
       <c r="AQ22" s="1"/>
       <c r="AR22" s="1"/>
     </row>
-    <row r="23" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="126"/>
+      <c r="B23" s="105"/>
       <c r="C23" s="19">
         <v>2</v>
       </c>
@@ -2617,7 +2615,7 @@
       <c r="O23" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P23" s="127"/>
+      <c r="P23" s="96"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="8" t="s">
         <v>0</v>
@@ -2652,9 +2650,9 @@
       <c r="AQ23" s="1"/>
       <c r="AR23" s="1"/>
     </row>
-    <row r="24" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="128">
+      <c r="B24" s="93">
         <v>3</v>
       </c>
       <c r="C24" s="45">
@@ -2667,7 +2665,7 @@
         <v>471</v>
       </c>
       <c r="F24" s="44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G24" s="43" t="s">
         <v>2</v>
@@ -2694,12 +2692,12 @@
       <c r="O24" s="36">
         <v>79</v>
       </c>
-      <c r="P24" s="127" t="s">
+      <c r="P24" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Q24" s="1"/>
       <c r="R24" s="22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="S24" s="21">
         <v>79</v>
@@ -2731,9 +2729,9 @@
       <c r="AQ24" s="1"/>
       <c r="AR24" s="1"/>
     </row>
-    <row r="25" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="129"/>
+      <c r="B25" s="94"/>
       <c r="C25" s="32">
         <v>3</v>
       </c>
@@ -2744,7 +2742,7 @@
         <v>781</v>
       </c>
       <c r="F25" s="31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G25" s="30" t="s">
         <v>2</v>
@@ -2771,10 +2769,10 @@
       <c r="O25" s="23">
         <v>79</v>
       </c>
-      <c r="P25" s="127"/>
+      <c r="P25" s="96"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="S25" s="7">
         <v>79</v>
@@ -2806,9 +2804,9 @@
       <c r="AQ25" s="1"/>
       <c r="AR25" s="1"/>
     </row>
-    <row r="26" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="130"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="19">
         <v>3</v>
       </c>
@@ -2844,7 +2842,7 @@
       <c r="O26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P26" s="127"/>
+      <c r="P26" s="96"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="22" t="s">
         <v>0</v>
@@ -2879,9 +2877,9 @@
       <c r="AQ26" s="1"/>
       <c r="AR26" s="1"/>
     </row>
-    <row r="27" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="128">
+      <c r="B27" s="93">
         <v>4</v>
       </c>
       <c r="C27" s="45">
@@ -2894,7 +2892,7 @@
         <v>418</v>
       </c>
       <c r="F27" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>2</v>
@@ -2921,12 +2919,12 @@
       <c r="O27" s="36">
         <v>62.5</v>
       </c>
-      <c r="P27" s="127" t="s">
+      <c r="P27" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Q27" s="1"/>
       <c r="R27" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="S27" s="7">
         <v>62.5</v>
@@ -2958,9 +2956,9 @@
       <c r="AQ27" s="1"/>
       <c r="AR27" s="1"/>
     </row>
-    <row r="28" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="129"/>
+      <c r="B28" s="94"/>
       <c r="C28" s="32">
         <v>4</v>
       </c>
@@ -2971,7 +2969,7 @@
         <v>943</v>
       </c>
       <c r="F28" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="30" t="s">
         <v>2</v>
@@ -2998,10 +2996,10 @@
       <c r="O28" s="23">
         <v>62.5</v>
       </c>
-      <c r="P28" s="127"/>
+      <c r="P28" s="96"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="22" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="S28" s="21">
         <v>62.5</v>
@@ -3033,9 +3031,9 @@
       <c r="AQ28" s="1"/>
       <c r="AR28" s="1"/>
     </row>
-    <row r="29" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="130"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="19">
         <v>4</v>
       </c>
@@ -3071,7 +3069,7 @@
       <c r="O29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P29" s="127"/>
+      <c r="P29" s="96"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="8" t="s">
         <v>0</v>
@@ -3106,9 +3104,9 @@
       <c r="AQ29" s="1"/>
       <c r="AR29" s="1"/>
     </row>
-    <row r="30" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="128">
+      <c r="B30" s="93">
         <v>5</v>
       </c>
       <c r="C30" s="45">
@@ -3121,7 +3119,7 @@
         <v>728</v>
       </c>
       <c r="F30" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>2</v>
@@ -3148,12 +3146,12 @@
       <c r="O30" s="36">
         <v>54.5</v>
       </c>
-      <c r="P30" s="127" t="s">
+      <c r="P30" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Q30" s="1"/>
       <c r="R30" s="22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S30" s="21">
         <v>54.5</v>
@@ -3185,9 +3183,9 @@
       <c r="AQ30" s="1"/>
       <c r="AR30" s="1"/>
     </row>
-    <row r="31" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="129"/>
+      <c r="B31" s="94"/>
       <c r="C31" s="32">
         <v>5</v>
       </c>
@@ -3195,10 +3193,10 @@
         <v>5</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F31" s="31" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G31" s="30" t="s">
         <v>0</v>
@@ -3225,7 +3223,7 @@
       <c r="O31" s="23">
         <v>54.5</v>
       </c>
-      <c r="P31" s="127"/>
+      <c r="P31" s="96"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="47" t="s">
         <v>10</v>
@@ -3257,9 +3255,9 @@
       <c r="AQ31" s="1"/>
       <c r="AR31" s="1"/>
     </row>
-    <row r="32" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="130"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="19">
         <v>5</v>
       </c>
@@ -3295,7 +3293,7 @@
       <c r="O32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="127"/>
+      <c r="P32" s="96"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="22" t="s">
         <v>0</v>
@@ -3330,9 +3328,9 @@
       <c r="AQ32" s="1"/>
       <c r="AR32" s="1"/>
     </row>
-    <row r="33" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="128">
+      <c r="B33" s="93">
         <v>6</v>
       </c>
       <c r="C33" s="45">
@@ -3372,7 +3370,7 @@
       <c r="O33" s="36">
         <v>44.5</v>
       </c>
-      <c r="P33" s="127" t="s">
+      <c r="P33" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Q33" s="1"/>
@@ -3409,9 +3407,9 @@
       <c r="AQ33" s="1"/>
       <c r="AR33" s="1"/>
     </row>
-    <row r="34" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="129"/>
+      <c r="B34" s="94"/>
       <c r="C34" s="32">
         <v>6</v>
       </c>
@@ -3449,7 +3447,7 @@
       <c r="O34" s="23">
         <v>44.5</v>
       </c>
-      <c r="P34" s="127"/>
+      <c r="P34" s="96"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="22" t="s">
         <v>8</v>
@@ -3484,9 +3482,9 @@
       <c r="AQ34" s="1"/>
       <c r="AR34" s="1"/>
     </row>
-    <row r="35" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="130"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="19">
         <v>6</v>
       </c>
@@ -3522,7 +3520,7 @@
       <c r="O35" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P35" s="127"/>
+      <c r="P35" s="96"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="8" t="s">
         <v>0</v>
@@ -3557,9 +3555,9 @@
       <c r="AQ35" s="1"/>
       <c r="AR35" s="1"/>
     </row>
-    <row r="36" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="128">
+      <c r="B36" s="93">
         <v>7</v>
       </c>
       <c r="C36" s="45">
@@ -3599,7 +3597,7 @@
       <c r="O36" s="36">
         <v>38.5</v>
       </c>
-      <c r="P36" s="127" t="s">
+      <c r="P36" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Q36" s="1"/>
@@ -3636,9 +3634,9 @@
       <c r="AQ36" s="1"/>
       <c r="AR36" s="1"/>
     </row>
-    <row r="37" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="129"/>
+      <c r="B37" s="94"/>
       <c r="C37" s="32">
         <v>7</v>
       </c>
@@ -3676,7 +3674,7 @@
       <c r="O37" s="23">
         <v>38.5</v>
       </c>
-      <c r="P37" s="127"/>
+      <c r="P37" s="96"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="8" t="s">
         <v>5</v>
@@ -3711,9 +3709,9 @@
       <c r="AQ37" s="1"/>
       <c r="AR37" s="1"/>
     </row>
-    <row r="38" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="130"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="19">
         <v>7</v>
       </c>
@@ -3749,7 +3747,7 @@
       <c r="O38" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P38" s="127"/>
+      <c r="P38" s="96"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="22" t="s">
         <v>0</v>
@@ -3784,9 +3782,9 @@
       <c r="AQ38" s="1"/>
       <c r="AR38" s="1"/>
     </row>
-    <row r="39" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="128">
+      <c r="B39" s="93">
         <v>8</v>
       </c>
       <c r="C39" s="45">
@@ -3826,7 +3824,7 @@
       <c r="O39" s="36">
         <v>32</v>
       </c>
-      <c r="P39" s="127" t="s">
+      <c r="P39" s="96" t="s">
         <v>4</v>
       </c>
       <c r="Q39" s="1"/>
@@ -3863,9 +3861,9 @@
       <c r="AQ39" s="1"/>
       <c r="AR39" s="1"/>
     </row>
-    <row r="40" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="129"/>
+      <c r="B40" s="94"/>
       <c r="C40" s="32">
         <v>8</v>
       </c>
@@ -3903,7 +3901,7 @@
       <c r="O40" s="23">
         <v>32</v>
       </c>
-      <c r="P40" s="127"/>
+      <c r="P40" s="96"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="22" t="s">
         <v>1</v>
@@ -3938,9 +3936,9 @@
       <c r="AQ40" s="1"/>
       <c r="AR40" s="1"/>
     </row>
-    <row r="41" spans="1:44" s="2" customFormat="1" ht="11.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="130"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="19">
         <v>8</v>
       </c>
@@ -3976,7 +3974,7 @@
       <c r="O41" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="127"/>
+      <c r="P41" s="96"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="8" t="s">
         <v>0</v>
@@ -4014,30 +4012,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="34">
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="P36:P38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="P39:P41"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:P13"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="J9:L9"/>
@@ -4048,6 +4022,30 @@
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="M9:P9"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="P39:P41"/>
   </mergeCells>
   <conditionalFormatting sqref="P18:P41">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">

--- a/results/170623-Z18-1707-2017_Munich_Mash-Open_Pairs.xlsx
+++ b/results/170623-Z18-1707-2017_Munich_Mash-Open_Pairs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\FpaExcelResultsParser\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B63A662-5458-4A42-8775-C7A3B99D7478}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BAC6BE1-FD29-431E-8B66-5E508C0AD050}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,9 +168,6 @@
     <t>Place:</t>
   </si>
   <si>
-    <t>23.06.17-25.06.17</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -184,6 +181,9 @@
   </si>
   <si>
     <t>Event:</t>
+  </si>
+  <si>
+    <t>23.06.2017-25.06.2017</t>
   </si>
 </sst>
 </file>
@@ -1335,58 +1335,6 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1395,6 +1343,67 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
@@ -1403,22 +1412,6 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1439,50 +1432,57 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="8" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1784,10 +1784,10 @@
   </sheetPr>
   <dimension ref="A1:AR41"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="B30" sqref="B30"/>
-      <selection pane="topRight" activeCell="L27" sqref="L27"/>
+      <selection pane="topRight" activeCell="V8" sqref="V8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1817,7 +1817,7 @@
     <row r="1" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="92" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="91"/>
@@ -1826,19 +1826,19 @@
       <c r="G2" s="91"/>
       <c r="H2" s="91"/>
       <c r="I2" s="91"/>
-      <c r="J2" s="119" t="s">
-        <v>50</v>
-      </c>
-      <c r="K2" s="120"/>
-      <c r="L2" s="120"/>
-      <c r="M2" s="120"/>
-      <c r="N2" s="120"/>
-      <c r="O2" s="120"/>
-      <c r="P2" s="121"/>
+      <c r="J2" s="98" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+      <c r="N2" s="99"/>
+      <c r="O2" s="99"/>
+      <c r="P2" s="100"/>
     </row>
     <row r="3" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="88" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="87"/>
       <c r="D3" s="87"/>
@@ -1847,22 +1847,22 @@
       <c r="G3" s="87"/>
       <c r="H3" s="87"/>
       <c r="I3" s="87"/>
-      <c r="J3" s="110" t="s">
-        <v>48</v>
-      </c>
-      <c r="K3" s="111"/>
-      <c r="L3" s="111"/>
-      <c r="M3" s="111"/>
-      <c r="N3" s="111"/>
-      <c r="O3" s="111"/>
-      <c r="P3" s="112"/>
+      <c r="J3" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="97"/>
+      <c r="P3" s="101"/>
       <c r="S3" s="2"/>
       <c r="T3" s="1"/>
       <c r="V3" s="1"/>
     </row>
     <row r="4" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="90" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="89"/>
       <c r="D4" s="89"/>
@@ -1871,15 +1871,15 @@
       <c r="G4" s="89"/>
       <c r="H4" s="89"/>
       <c r="I4" s="89"/>
-      <c r="J4" s="122" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="124"/>
+      <c r="J4" s="102" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="103"/>
+      <c r="L4" s="103"/>
+      <c r="M4" s="103"/>
+      <c r="N4" s="103"/>
+      <c r="O4" s="103"/>
+      <c r="P4" s="104"/>
     </row>
     <row r="5" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="88" t="s">
@@ -1892,15 +1892,15 @@
       <c r="G5" s="87"/>
       <c r="H5" s="87"/>
       <c r="I5" s="87"/>
-      <c r="J5" s="110" t="s">
+      <c r="J5" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="112"/>
+      <c r="K5" s="97"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="97"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="97"/>
+      <c r="P5" s="101"/>
     </row>
     <row r="6" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="90" t="s">
@@ -1913,15 +1913,15 @@
       <c r="G6" s="89"/>
       <c r="H6" s="89"/>
       <c r="I6" s="89"/>
-      <c r="J6" s="125">
+      <c r="J6" s="105">
         <v>15</v>
       </c>
-      <c r="K6" s="126"/>
-      <c r="L6" s="126"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="126"/>
-      <c r="O6" s="126"/>
-      <c r="P6" s="127"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
+      <c r="N6" s="106"/>
+      <c r="O6" s="106"/>
+      <c r="P6" s="107"/>
     </row>
     <row r="7" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="88" t="s">
@@ -1934,15 +1934,15 @@
       <c r="G7" s="87"/>
       <c r="H7" s="87"/>
       <c r="I7" s="87"/>
-      <c r="J7" s="128">
+      <c r="J7" s="108">
         <v>0.8</v>
       </c>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
-      <c r="O7" s="129"/>
-      <c r="P7" s="130"/>
+      <c r="K7" s="109"/>
+      <c r="L7" s="109"/>
+      <c r="M7" s="109"/>
+      <c r="N7" s="109"/>
+      <c r="O7" s="109"/>
+      <c r="P7" s="110"/>
     </row>
     <row r="8" spans="1:22" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="90" t="s">
@@ -1955,15 +1955,15 @@
       <c r="G8" s="89"/>
       <c r="H8" s="89"/>
       <c r="I8" s="89"/>
-      <c r="J8" s="106"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="107" t="s">
+      <c r="J8" s="93"/>
+      <c r="K8" s="94"/>
+      <c r="L8" s="94"/>
+      <c r="M8" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="N8" s="107"/>
-      <c r="O8" s="107"/>
-      <c r="P8" s="113"/>
+      <c r="N8" s="94"/>
+      <c r="O8" s="94"/>
+      <c r="P8" s="95"/>
     </row>
     <row r="9" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="88" t="s">
@@ -1976,13 +1976,13 @@
       <c r="G9" s="87"/>
       <c r="H9" s="87"/>
       <c r="I9" s="87"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="111"/>
-      <c r="O9" s="111"/>
-      <c r="P9" s="112"/>
+      <c r="J9" s="96"/>
+      <c r="K9" s="97"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="97"/>
+      <c r="O9" s="97"/>
+      <c r="P9" s="101"/>
     </row>
     <row r="10" spans="1:22" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="90" t="s">
@@ -1995,13 +1995,13 @@
       <c r="G10" s="89"/>
       <c r="H10" s="89"/>
       <c r="I10" s="89"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="107"/>
-      <c r="L10" s="107"/>
-      <c r="M10" s="108"/>
-      <c r="N10" s="108"/>
-      <c r="O10" s="108"/>
-      <c r="P10" s="109"/>
+      <c r="J10" s="93"/>
+      <c r="K10" s="94"/>
+      <c r="L10" s="94"/>
+      <c r="M10" s="111"/>
+      <c r="N10" s="111"/>
+      <c r="O10" s="111"/>
+      <c r="P10" s="112"/>
     </row>
     <row r="11" spans="1:22" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="88" t="s">
@@ -2014,15 +2014,15 @@
       <c r="G11" s="87"/>
       <c r="H11" s="87"/>
       <c r="I11" s="87"/>
-      <c r="J11" s="110">
+      <c r="J11" s="96">
         <v>1707</v>
       </c>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="112"/>
+      <c r="K11" s="97"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="97"/>
+      <c r="O11" s="97"/>
+      <c r="P11" s="101"/>
     </row>
     <row r="12" spans="1:22" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="86" t="s">
@@ -2035,32 +2035,32 @@
       <c r="G12" s="85"/>
       <c r="H12" s="85"/>
       <c r="I12" s="85"/>
-      <c r="J12" s="106">
+      <c r="J12" s="93">
         <v>1907</v>
       </c>
-      <c r="K12" s="107"/>
-      <c r="L12" s="107"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="107"/>
-      <c r="P12" s="113"/>
+      <c r="K12" s="94"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="95"/>
     </row>
     <row r="13" spans="1:22" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="114"/>
-      <c r="C13" s="115"/>
-      <c r="D13" s="115"/>
-      <c r="E13" s="115"/>
-      <c r="F13" s="115"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="115"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="117"/>
-      <c r="L13" s="117"/>
-      <c r="M13" s="117"/>
-      <c r="N13" s="117"/>
-      <c r="O13" s="117"/>
-      <c r="P13" s="118"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="114"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="116"/>
+      <c r="M13" s="116"/>
+      <c r="N13" s="116"/>
+      <c r="O13" s="116"/>
+      <c r="P13" s="117"/>
     </row>
     <row r="14" spans="1:22" ht="12" thickBot="1" x14ac:dyDescent="0.25">
       <c r="Q14" s="84"/>
@@ -2087,9 +2087,9 @@
       <c r="N15" s="77"/>
       <c r="O15" s="76"/>
       <c r="P15" s="76"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="98"/>
-      <c r="T15" s="99"/>
+      <c r="R15" s="118"/>
+      <c r="S15" s="119"/>
+      <c r="T15" s="120"/>
       <c r="U15" s="75">
         <v>1</v>
       </c>
@@ -2136,11 +2136,11 @@
       <c r="P16" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="R16" s="100" t="s">
+      <c r="R16" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="101"/>
-      <c r="T16" s="102"/>
+      <c r="S16" s="122"/>
+      <c r="T16" s="123"/>
       <c r="U16" s="5"/>
     </row>
     <row r="17" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2198,7 +2198,7 @@
     </row>
     <row r="18" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="103">
+      <c r="B18" s="124">
         <v>1</v>
       </c>
       <c r="C18" s="45">
@@ -2238,7 +2238,7 @@
       <c r="O18" s="36">
         <v>119</v>
       </c>
-      <c r="P18" s="96" t="s">
+      <c r="P18" s="127" t="s">
         <v>4</v>
       </c>
       <c r="Q18" s="1"/>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="19" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="104"/>
+      <c r="B19" s="125"/>
       <c r="C19" s="32">
         <v>1</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="O19" s="23">
         <v>119</v>
       </c>
-      <c r="P19" s="96"/>
+      <c r="P19" s="127"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="8" t="s">
         <v>19</v>
@@ -2352,7 +2352,7 @@
     </row>
     <row r="20" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="105"/>
+      <c r="B20" s="126"/>
       <c r="C20" s="19">
         <v>1</v>
       </c>
@@ -2388,7 +2388,7 @@
       <c r="O20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="96"/>
+      <c r="P20" s="127"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="22" t="s">
         <v>0</v>
@@ -2425,7 +2425,7 @@
     </row>
     <row r="21" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="103">
+      <c r="B21" s="124">
         <v>2</v>
       </c>
       <c r="C21" s="45">
@@ -2465,7 +2465,7 @@
       <c r="O21" s="36">
         <v>98</v>
       </c>
-      <c r="P21" s="96" t="s">
+      <c r="P21" s="127" t="s">
         <v>4</v>
       </c>
       <c r="Q21" s="1"/>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="22" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="104"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="32">
         <v>2</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="O22" s="23">
         <v>98</v>
       </c>
-      <c r="P22" s="96"/>
+      <c r="P22" s="127"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="22" t="s">
         <v>17</v>
@@ -2579,7 +2579,7 @@
     </row>
     <row r="23" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="105"/>
+      <c r="B23" s="126"/>
       <c r="C23" s="19">
         <v>2</v>
       </c>
@@ -2615,7 +2615,7 @@
       <c r="O23" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P23" s="96"/>
+      <c r="P23" s="127"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="8" t="s">
         <v>0</v>
@@ -2652,7 +2652,7 @@
     </row>
     <row r="24" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="93">
+      <c r="B24" s="128">
         <v>3</v>
       </c>
       <c r="C24" s="45">
@@ -2692,7 +2692,7 @@
       <c r="O24" s="36">
         <v>79</v>
       </c>
-      <c r="P24" s="96" t="s">
+      <c r="P24" s="127" t="s">
         <v>4</v>
       </c>
       <c r="Q24" s="1"/>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="25" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="94"/>
+      <c r="B25" s="129"/>
       <c r="C25" s="32">
         <v>3</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="O25" s="23">
         <v>79</v>
       </c>
-      <c r="P25" s="96"/>
+      <c r="P25" s="127"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="8" t="s">
         <v>15</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="26" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="95"/>
+      <c r="B26" s="130"/>
       <c r="C26" s="19">
         <v>3</v>
       </c>
@@ -2842,7 +2842,7 @@
       <c r="O26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P26" s="96"/>
+      <c r="P26" s="127"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="22" t="s">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="27" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="93">
+      <c r="B27" s="128">
         <v>4</v>
       </c>
       <c r="C27" s="45">
@@ -2919,7 +2919,7 @@
       <c r="O27" s="36">
         <v>62.5</v>
       </c>
-      <c r="P27" s="96" t="s">
+      <c r="P27" s="127" t="s">
         <v>4</v>
       </c>
       <c r="Q27" s="1"/>
@@ -2958,7 +2958,7 @@
     </row>
     <row r="28" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="94"/>
+      <c r="B28" s="129"/>
       <c r="C28" s="32">
         <v>4</v>
       </c>
@@ -2996,7 +2996,7 @@
       <c r="O28" s="23">
         <v>62.5</v>
       </c>
-      <c r="P28" s="96"/>
+      <c r="P28" s="127"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="22" t="s">
         <v>13</v>
@@ -3033,7 +3033,7 @@
     </row>
     <row r="29" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="95"/>
+      <c r="B29" s="130"/>
       <c r="C29" s="19">
         <v>4</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="O29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P29" s="96"/>
+      <c r="P29" s="127"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="8" t="s">
         <v>0</v>
@@ -3106,7 +3106,7 @@
     </row>
     <row r="30" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="93">
+      <c r="B30" s="128">
         <v>5</v>
       </c>
       <c r="C30" s="45">
@@ -3146,7 +3146,7 @@
       <c r="O30" s="36">
         <v>54.5</v>
       </c>
-      <c r="P30" s="96" t="s">
+      <c r="P30" s="127" t="s">
         <v>4</v>
       </c>
       <c r="Q30" s="1"/>
@@ -3185,7 +3185,7 @@
     </row>
     <row r="31" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="94"/>
+      <c r="B31" s="129"/>
       <c r="C31" s="32">
         <v>5</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="O31" s="23">
         <v>54.5</v>
       </c>
-      <c r="P31" s="96"/>
+      <c r="P31" s="127"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="47" t="s">
         <v>10</v>
@@ -3257,7 +3257,7 @@
     </row>
     <row r="32" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="95"/>
+      <c r="B32" s="130"/>
       <c r="C32" s="19">
         <v>5</v>
       </c>
@@ -3293,7 +3293,7 @@
       <c r="O32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P32" s="96"/>
+      <c r="P32" s="127"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="22" t="s">
         <v>0</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="33" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
-      <c r="B33" s="93">
+      <c r="B33" s="128">
         <v>6</v>
       </c>
       <c r="C33" s="45">
@@ -3370,7 +3370,7 @@
       <c r="O33" s="36">
         <v>44.5</v>
       </c>
-      <c r="P33" s="96" t="s">
+      <c r="P33" s="127" t="s">
         <v>4</v>
       </c>
       <c r="Q33" s="1"/>
@@ -3409,7 +3409,7 @@
     </row>
     <row r="34" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="94"/>
+      <c r="B34" s="129"/>
       <c r="C34" s="32">
         <v>6</v>
       </c>
@@ -3447,7 +3447,7 @@
       <c r="O34" s="23">
         <v>44.5</v>
       </c>
-      <c r="P34" s="96"/>
+      <c r="P34" s="127"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="22" t="s">
         <v>8</v>
@@ -3484,7 +3484,7 @@
     </row>
     <row r="35" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
-      <c r="B35" s="95"/>
+      <c r="B35" s="130"/>
       <c r="C35" s="19">
         <v>6</v>
       </c>
@@ -3520,7 +3520,7 @@
       <c r="O35" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P35" s="96"/>
+      <c r="P35" s="127"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="8" t="s">
         <v>0</v>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="36" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="93">
+      <c r="B36" s="128">
         <v>7</v>
       </c>
       <c r="C36" s="45">
@@ -3597,7 +3597,7 @@
       <c r="O36" s="36">
         <v>38.5</v>
       </c>
-      <c r="P36" s="96" t="s">
+      <c r="P36" s="127" t="s">
         <v>4</v>
       </c>
       <c r="Q36" s="1"/>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="37" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
-      <c r="B37" s="94"/>
+      <c r="B37" s="129"/>
       <c r="C37" s="32">
         <v>7</v>
       </c>
@@ -3674,7 +3674,7 @@
       <c r="O37" s="23">
         <v>38.5</v>
       </c>
-      <c r="P37" s="96"/>
+      <c r="P37" s="127"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="8" t="s">
         <v>5</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="38" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="95"/>
+      <c r="B38" s="130"/>
       <c r="C38" s="19">
         <v>7</v>
       </c>
@@ -3747,7 +3747,7 @@
       <c r="O38" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P38" s="96"/>
+      <c r="P38" s="127"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="22" t="s">
         <v>0</v>
@@ -3784,7 +3784,7 @@
     </row>
     <row r="39" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
-      <c r="B39" s="93">
+      <c r="B39" s="128">
         <v>8</v>
       </c>
       <c r="C39" s="45">
@@ -3824,7 +3824,7 @@
       <c r="O39" s="36">
         <v>32</v>
       </c>
-      <c r="P39" s="96" t="s">
+      <c r="P39" s="127" t="s">
         <v>4</v>
       </c>
       <c r="Q39" s="1"/>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="40" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="94"/>
+      <c r="B40" s="129"/>
       <c r="C40" s="32">
         <v>8</v>
       </c>
@@ -3901,7 +3901,7 @@
       <c r="O40" s="23">
         <v>32</v>
       </c>
-      <c r="P40" s="96"/>
+      <c r="P40" s="127"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="22" t="s">
         <v>1</v>
@@ -3938,7 +3938,7 @@
     </row>
     <row r="41" spans="1:44" s="2" customFormat="1" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="95"/>
+      <c r="B41" s="130"/>
       <c r="C41" s="19">
         <v>8</v>
       </c>
@@ -3974,7 +3974,7 @@
       <c r="O41" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P41" s="96"/>
+      <c r="P41" s="127"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="8" t="s">
         <v>0</v>
@@ -4012,6 +4012,30 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="34">
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="P33:P35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="P36:P38"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="P39:P41"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="P24:P26"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="P27:P29"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="P30:P32"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="P18:P20"/>
+    <mergeCell ref="B21:B23"/>
+    <mergeCell ref="P21:P23"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:P10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="B13:I13"/>
+    <mergeCell ref="J13:P13"/>
     <mergeCell ref="J8:L8"/>
     <mergeCell ref="M8:P8"/>
     <mergeCell ref="J9:L9"/>
@@ -4022,30 +4046,6 @@
     <mergeCell ref="J6:P6"/>
     <mergeCell ref="J7:P7"/>
     <mergeCell ref="M9:P9"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="B13:I13"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="R15:T15"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="P18:P20"/>
-    <mergeCell ref="B21:B23"/>
-    <mergeCell ref="P21:P23"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="P24:P26"/>
-    <mergeCell ref="B27:B29"/>
-    <mergeCell ref="P27:P29"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="P30:P32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="P33:P35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="P36:P38"/>
-    <mergeCell ref="B39:B41"/>
-    <mergeCell ref="P39:P41"/>
   </mergeCells>
   <conditionalFormatting sqref="P18:P41">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
